--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_28.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_28.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tomoya Yamamoto</t>
+          <t>Kazuya Tanaka</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
